--- a/development/L1Menu_Collisions2024_v0_0_0/PrescaleTable/L1Menu_Collisions2024_v0_0_0.xlsx
+++ b/development/L1Menu_Collisions2024_v0_0_0/PrescaleTable/L1Menu_Collisions2024_v0_0_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Desktop/L1Menus/L1Menu_Collisions2024_v0_0_0/PrescaleTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C893E7-3A1B-4348-9CFD-6E6C8A7EE0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4BA09E-F55A-0449-95A9-AD53318C4BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="-19620" windowWidth="28800" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L1Menu_Collisions2024_v0_0_0" sheetId="1" r:id="rId1"/>
@@ -1493,8 +1493,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1509,8 +1509,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1541,8 +1541,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1557,8 +1557,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1779,10 +1779,10 @@
   <dimension ref="A1:J1020"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H85" sqref="H85"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="5">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10178,18 +10178,18 @@
       <c r="D1020" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D246:D271 C319:D319 C322 C324 D191:D244 C191:C271 C326:D427 C272:D317 D318 C2:D190">
-    <cfRule type="cellIs" dxfId="8" priority="25" operator="equal">
+  <conditionalFormatting sqref="C2:D190 D191:D244 C191:C271 D246:D271 C272:D317 D318 C319:D319 C322 C324">
+    <cfRule type="cellIs" dxfId="8" priority="27" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C428:D430">
+  <conditionalFormatting sqref="C326:D430">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -10201,13 +10201,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D320:D325">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
